--- a/screens/confusion.xlsx
+++ b/screens/confusion.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NN edible 5PCA" sheetId="1" r:id="rId1"/>
     <sheet name="SOM edible 5PCA" sheetId="2" r:id="rId2"/>
     <sheet name="NN habitat 10PCA" sheetId="4" r:id="rId3"/>
     <sheet name="SOM habitat 22" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Edible</t>
   </si>
@@ -41,6 +42,18 @@
   </si>
   <si>
     <t>Lesy</t>
+  </si>
+  <si>
+    <t>Neurónové siete</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>Lineárny klasifikátor</t>
+  </si>
+  <si>
+    <t>Rozhodovací strom</t>
   </si>
 </sst>
 </file>
@@ -76,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,6 +104,619 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>Jedlosť húb</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Neurónové siete</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lineárny klasifikátor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rozhodovací strom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Neurónové siete</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lineárny klasifikátor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rozhodovací strom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Neurónové siete</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lineárny klasifikátor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rozhodovací strom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="42760832"/>
+        <c:axId val="43315584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="42760832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43315584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43315584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42760832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>Nálezisko húb</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Neurónové siete</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lineárny klasifikátor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rozhodovací strom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Neurónové siete</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lineárny klasifikátor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rozhodovací strom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Neurónové siete</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lineárny klasifikátor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rozhodovací strom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="39967360"/>
+        <c:axId val="40145280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39967360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40145280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40145280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39967360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -819,4 +1446,148 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>22</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>10</v>
+      </c>
+      <c r="I1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>